--- a/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>35,54%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,63; 16,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 15,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,07; 562,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,22</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>118,53%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,27%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 10,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 0,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,36; 479,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 9,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,67; 544,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -911,10 +911,98 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>248,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 7,83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 2,28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 218,09</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_7_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,34 +611,22 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35,54%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="C4" s="5" t="n">
+        <v>3.253327153465809</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.166815479491478</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.3554451547782502</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -637,204 +634,114 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 16,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,69</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-66,07; 562,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.629817825708116</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6606558645839783</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.07925911060713</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>15.1034697321098</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>5.620420244658778</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,22</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>118,53%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-22,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 10,82</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 0,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-12,36; 479,4</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.222401444161037</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1044958402857087</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.185304373840828</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-0.1590690196214377</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>85,78%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.08161380634018123</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-2.252258825871568</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1236009739728559</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 9,31</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,08</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,67; 544,93</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>10.81603213111272</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>1.116822184249359</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>4.79395417758366</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,34 +749,26 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+      <c r="C10" s="5" t="n">
+        <v>3.810479256181199</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5749102239205129</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4814622074384013</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.8577583657667314</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -877,137 +776,138 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.525581009522506</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2467235409933262</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.308804722766371</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.839142200468611</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.42366229028538</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>5.44925231349557</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>86,4%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>248,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 7,83</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,31</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 2,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 218,09</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.354796880611354</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.234625846625204</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7000148843771883</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.8639595259996516</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.101772336585222</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4126576187162892</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2924154077254137</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.001448425442320639</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.831247978511448</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.197288083866155</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.265279850355248</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.180897815287153</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
